--- a/src/upload/template/employee.xlsx
+++ b/src/upload/template/employee.xlsx
@@ -44,7 +44,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Dữ liệu tham chiếu bảng Branch (BranchID)</t>
+Dữ liệu tham chiếu bảng Branch (BranchCode)</t>
         </r>
       </text>
     </comment>
@@ -159,9 +159,6 @@
     <t>EmployeeCode</t>
   </si>
   <si>
-    <t>BranchID</t>
-  </si>
-  <si>
     <t>EmployeeName</t>
   </si>
   <si>
@@ -216,9 +213,6 @@
     <t>Nguyễn Khắc Tiềm</t>
   </si>
   <si>
-    <t>174b8763-2707-7cb1-3c71-153b37881afe</t>
-  </si>
-  <si>
     <t>Nam Từ Liêm</t>
   </si>
   <si>
@@ -253,6 +247,12 @@
   </si>
   <si>
     <t>IsActive</t>
+  </si>
+  <si>
+    <t>BranchCode</t>
+  </si>
+  <si>
+    <t>D008</t>
   </si>
 </sst>
 </file>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,72 +642,72 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -716,43 +716,43 @@
         <v>31474729847</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1">
         <v>4550349195</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
